--- a/Four Ten Credit Optionals.xlsx
+++ b/Four Ten Credit Optionals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="By Module" sheetId="1" r:id="rId1"/>
@@ -811,9 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1057,7 +1055,7 @@
         <v>33.333333333333336</v>
       </c>
       <c r="E13" s="9">
-        <f>((B13/100)*D13)</f>
+        <f t="shared" ref="E13:E19" si="3">((B13/100)*D13)</f>
         <v>0</v>
       </c>
       <c r="F13" s="5">
@@ -1078,7 +1076,7 @@
         <v>16.666666666666668</v>
       </c>
       <c r="E14" s="8">
-        <f>((B14/100)*D14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="7">
@@ -1095,15 +1093,15 @@
         <v>20</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:D17" si="3" xml:space="preserve"> (100 / 120 * C15)</f>
+        <f t="shared" ref="D15" si="4" xml:space="preserve"> (100 / 120 * C15)</f>
         <v>16.666666666666668</v>
       </c>
       <c r="E15" s="8">
-        <f>((B15/100)*D15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" ref="F14:F17" si="4">E15*0.75</f>
+        <f t="shared" ref="F15" si="5">E15*0.75</f>
         <v>0</v>
       </c>
     </row>
@@ -1120,7 +1118,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="E16" s="8">
-        <f>((B16/100)*D16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="7">
@@ -1141,7 +1139,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="E17" s="8">
-        <f>((B17/100)*D17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F17" s="7">
@@ -1162,7 +1160,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="E18" s="8">
-        <f>((B18/100)*D18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F18" s="7">
@@ -1183,7 +1181,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="E19" s="12">
-        <f>((B19/100)*D19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F19" s="13">
@@ -1220,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -1940,11 +1938,11 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="32">
-        <f>(E28/100)*D28</f>
+        <f t="shared" ref="F28:F35" si="6">(E28/100)*D28</f>
         <v>0</v>
       </c>
       <c r="G28" s="37">
-        <f>F28*0.75</f>
+        <f t="shared" ref="G28:G35" si="7">F28*0.75</f>
         <v>0</v>
       </c>
     </row>
@@ -1962,11 +1960,11 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="32">
-        <f>(E29/100)*D29</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G29" s="37">
-        <f>F29*0.75</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1986,11 +1984,11 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="32">
-        <f>(E30/100)*D30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="37">
-        <f>F30*0.75</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2008,11 +2006,11 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="32">
-        <f>(E31/100)*D31</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G31" s="37">
-        <f>F31*0.75</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2032,11 +2030,11 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="32">
-        <f>(E32/100)*D32</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G32" s="37">
-        <f>F32*0.75</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2054,11 +2052,11 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="32">
-        <f>(E33/100)*D33</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G33" s="37">
-        <f>F33*0.75</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2078,11 +2076,11 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="32">
-        <f>(E34/100)*D34</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" s="37">
-        <f>F34*0.75</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2100,11 +2098,11 @@
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="33">
-        <f>(E35/100)*D35</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G35" s="38">
-        <f>F35*0.75</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
